--- a/Spider/Seleium/data.xlsx
+++ b/Spider/Seleium/data.xlsx
@@ -48484,97 +48484,97 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>黑河黄藏寺水利枢纽工程水土保持设施验收报告编制委托</t>
+          <t>海测3301船2023年度中间检及维修采购项目</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>服务/科学研究和试验开发/其他研究和试验开发服务</t>
+          <t>服务/维修和保养服务/其他维修和保养服务</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>黑河黄藏寺水利枢纽工程建设管理中心</t>
+          <t>国家海洋局南海标准计量中心</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>2023年06月09日  17:36</t>
+          <t>2023年06月16日  17:24</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2023年06月10日至2023年06月17日每日上午:8:00 至 12:00  下午:12:00 至 21:00（北京时间，法定节假日除外）</t>
+          <t>2023年06月19日至2023年06月26日每日上午:9:00 至 12:00  下午:14:00 至 17:30（北京时间，法定节假日除外）</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>￥0</t>
+          <t>￥500</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>甘肃省公共资源交易网（http://ggzyjy.gansu.gov.cn）在线免费获得</t>
+          <t>广州市天河区广州大道北520号中创盈科大厦12楼1202室</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>2023年07月04日  09:00</t>
+          <t>2023年07月07日  14:30</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>甘肃省公共资源交易中心（兰州市城关区雁兴路68号）网络开标直播二厅第一坐席，本项目以电子投标文件进行提交，潜在投标人不需到场提交投标文件。</t>
+          <t>广州市天河区广州大道北520号中创盈科大厦12楼1202室</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>￥173.280000万元（人民币）</t>
+          <t>￥249.991600万元（人民币）</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>夏新伟</t>
+          <t>吴小姐</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>0371-66026721</t>
+          <t>020-88526352</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>黑河黄藏寺水利枢纽工程建设管理中心</t>
+          <t>国家海洋局南海标准计量中心</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>甘肃省兰州市城关区临夏路街道中山路124号</t>
+          <t>广州市海珠区新港西路155号</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>屈工 0970-8870035</t>
+          <t>方先生/020-84205272</t>
         </is>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>河南大河招标有限公司</t>
+          <t>国盛招标项目管理咨询（广州）有限公司</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>河南省郑州市城东路112号附1号</t>
+          <t>广州市天河区广州大道北520号中创盈科大厦12楼1202室</t>
         </is>
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>夏新伟  0371-66026721</t>
+          <t>020-88524605/020-88526352</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">

--- a/Spider/Seleium/data.xlsx
+++ b/Spider/Seleium/data.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA482"/>
+  <dimension ref="A1:AA572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
       <selection activeCell="A484" sqref="A484"/>
@@ -48591,97 +48591,9128 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>海测3301船2023年度中间检及维修采购项目</t>
+          <t>中国科学技术大学全校区消防设施维保服务</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>服务/维修和保养服务/其他维修和保养服务</t>
+          <t>服务/专业技术服务/其他专业技术服务</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>国家海洋局南海标准计量中心</t>
+          <t>中国科学技术大学</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
+          <t>安徽</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:01</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 12:00  下午:12:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>“优质采云采购平台”（http://www.youzhicai.com/）</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>线上开标：“优质采云采购平台”（http://www.youzhicai.com/）</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>￥160.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>刘志凌、张文奇（805 室）</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>0551-62220264、62220268、15209887650</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>中国科学技术大学</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>合肥市金寨路 96 号</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>许老师 0551-63600119</t>
+        </is>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>安徽省招标集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>合肥市包河大道236号</t>
+        </is>
+      </c>
+      <c r="S482" t="inlineStr">
+        <is>
+          <t>应急客服电话：0551-62220153（接听时间：8:30-12:00,13:30-17:30，节假日除外。潜在供应商应优先拨打项目联系人联系电话，无人接听时再拨打该“应急客服电话”）</t>
+        </is>
+      </c>
+      <c r="T482" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=7241929268A05113AD623F85432350)采购需求.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>北京中医药大学东方医院（一院三区）配电室预防性试验及清扫项目（2023年度）</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>服务/其他服务</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>北京中医药大学东方医院</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:54</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 11:30  下午:13:30 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>网上领购或北京市朝阳区裕民路12号院元辰鑫大厦E1座424室。</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>2023年07月13日  13:30</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市朝阳区裕民路12号院元辰鑫大厦E1座405室  </t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>￥29.380000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>周连妹、陈月莲、余冉冉</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>010-82250125</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>北京中医药大学东方医院</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市丰台区方庄芳星园一区六号 </t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>010-67652797</t>
+        </is>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>北京中兴恒达招标有限公司</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>北京市朝阳区裕民路12号元辰鑫大厦E1座424室</t>
+        </is>
+      </c>
+      <c r="S483" t="inlineStr">
+        <is>
+          <t>周连妹、陈月莲、余冉冉 010-82250125</t>
+        </is>
+      </c>
+      <c r="T483" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=962F6812AC114554C11FFF55BE4B69)采购需求.docx</t>
+        </is>
+      </c>
+      <c r="U483" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=03E758D192EC6CE30FD215E0632A53)网上购买流程.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>东华大学延安路校区老设备材料楼修缮工程</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>工程/装修工程</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>东华大学</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:50</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:8:00 至 12:00  下午:12:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>￥1000</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>微信公众号“教建咨询”</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>2023年07月14日  10:00</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>上海市钦江路88号东楼626室（具体房间看门口大屏幕）</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>￥234.890000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>胡华</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>021-63820186-8129</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>东华大学</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>上海市延安西路1882号</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>翁老师，021-67798735</t>
+        </is>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>上海教育建设管理咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>上海市钦江路88号东楼626室</t>
+        </is>
+      </c>
+      <c r="S484" t="inlineStr">
+        <is>
+          <t>胡华，021-63820186-8129，huhua1983@qq.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>中国民用航空飞行学院生活物资（冻货类、牛羊肉类、调味干杂类）采购项目</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>货物/食品、饮料和烟草原料/食品及加工盐/调味品,货物/食品、饮料和烟草原料/食品及加工盐/焙烤食品,货物/食品、饮料和烟草原料/农副食品，动、植物油制品/其他农副食品,货物/食品、饮料和烟草原料/农副食品，动、植物油制品/畜禽肉</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>中国民用航空飞行学院</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:48</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 11:30  下午:13:30 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">四川省成都市双流区机场东一路35号中国航材2214会议室 </t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>四川省成都市双流区机场东一路35号中国航材2210会议室。
+注：投标截止时间后送达的投标文件或未按招标文件要求密封的投标文件，采购机构可以拒收。</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>￥700.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>杨秋月</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>028-66265005</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>中国民用航空飞行学院</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>四川省广汉市南昌路四段46号</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>秦老师，0838-5183579</t>
+        </is>
+      </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>中航材国际招标有限公司</t>
+        </is>
+      </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>北京市朝阳区霄云里2号</t>
+        </is>
+      </c>
+      <c r="S485" t="inlineStr">
+        <is>
+          <t>杨秋月028-66265005电 子 邮 箱：yangqy@casc.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>中国科学院青海盐湖研究所电子探针显微分析仪采购项目</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/分析仪器/其他分析仪器</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>中国科学院青海盐湖研究所</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>青海</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:47</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>www.oitccas.com；北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层科创厅</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>￥300.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李媛  吴旭   冯宇图   liyuan@oitc.com.cn </t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>李媛  吴旭  冯宇图  010-68290524、010-68290510、010-68290550</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>中国科学院青海盐湖研究所</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青海省西宁市新宁路18号 </t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0971-6302392 </t>
+        </is>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>东方国际招标有限责任公司</t>
+        </is>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="S486" t="inlineStr">
+        <is>
+          <t>李媛 吴旭 冯宇图 010-68290524、010-68290510、010-68290550</t>
+        </is>
+      </c>
+      <c r="T486" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=40FB4B71372DADBD906340775A4867)561209技术要求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>中国科学院青海盐湖研究所地面核磁共振二维多通道找水仪采购项目</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>货物/专用设备/专用仪器仪表/地质勘探、钻采及人工地震仪器</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>中国科学院青海盐湖研究所</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>青海</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:47</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>www.oitccas.com；北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层科创厅</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>￥372.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>李媛  吴旭   冯宇图   liyuan@oitc.com.cn</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>李媛  吴旭  冯宇图  010-68290524、010-68290510、010-68290550</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>中国科学院青海盐湖研究所</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>青海省西宁市新宁路18号</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>0971-6302392</t>
+        </is>
+      </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>东方国际招标有限责任公司</t>
+        </is>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="S487" t="inlineStr">
+        <is>
+          <t>李媛 吴旭 冯宇图 010-68290524、010-68290510、010-68290550</t>
+        </is>
+      </c>
+      <c r="T487" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=DEB3088E37FC3C95D49A77209B58F1)561208技术要求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>西南财经大学计算机基础实验中心智慧实验室采购项目</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>货物/专用设备/专用仪器仪表/教学专用仪器</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>西南财经大学</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:47</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:12:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>成都盈合工程项目管理有限公司官网：http://www.scyhgc.com/</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>2023年07月12日  10:00</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道中段530-2号东方希望天祥广场B座12楼10号</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>￥150.455000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>翁先生</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">028-61397250、028-61397251转610 </t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>西南财经大学</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>四川省成都市温江区柳台大道555号</t>
+        </is>
+      </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>唐老师；028-87092439</t>
+        </is>
+      </c>
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>成都盈合工程项目管理有限公司</t>
+        </is>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道中段530-2号东方希望天祥广场B座12楼10号</t>
+        </is>
+      </c>
+      <c r="S488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">翁先生；028-61397250、028-61397251转610 </t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>上海交通大学多维超快光谱平台主脉冲激光器系统</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/分析仪器/其他分析仪器</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>上海交通大学</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:46</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:30 至 11:00  下午:13:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>电子邮件获取</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>2023年07月11日  14:00</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>上海市静安区汶水路299弄25-26号10号楼2楼</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>￥300.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>王逸伦</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>021-53087656-321</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>上海交通大学</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>上海市闵行区东川路800号</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>招采办经办人：刘老师 021-54744366  技术联系人：严老师 021-54742245</t>
+        </is>
+      </c>
+      <c r="Q489" t="inlineStr">
+        <is>
+          <t>上海健生教育配置招标有限公司</t>
+        </is>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>上海市静安区汶水路299弄25-26号10号楼2楼</t>
+        </is>
+      </c>
+      <c r="S489" t="inlineStr">
+        <is>
+          <t>王逸伦、益文博 86-021-53087656-321、106</t>
+        </is>
+      </c>
+      <c r="T489" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=D5AAD1612C1B84C442E721EACCF448)报名登记表W21.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第七批</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:45</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年08月02日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>2023年08月03日  09:00</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>￥7994.094320万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S490" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第四批</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:40</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月23日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>2023年07月24日  09:00</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>￥12421.518180万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q491" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S491" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第五批</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:40</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月26日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>2023年07月27日  09:00</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>￥11658.938320万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S492" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第六批</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:40</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月30日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>2023年07月31日  09:00</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>￥9111.296510万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S493" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>食堂餐饮服务采购项目（包括职工餐补、误餐（含值班餐、血透室误餐、职工开展活动误餐）、招待餐、健康管理部营养早餐及病人餐等经营服务）</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>服务/住宿和餐饮服务/餐饮服务</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>中国工程物理研究院职工医院</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:32</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 11:30  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>四川省绵阳市绵山路64号华庭酒店3楼</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>2023年07月19日  09:30</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>四川省绵阳市绵山路64号华庭酒店105室</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>￥1650.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李洪波 </t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>0816-2485834</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>中国工程物理研究院职工医院</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>四川省绵阳市64号中国工程物理研究院职工医院</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>李洪波 ，0816-2485834</t>
+        </is>
+      </c>
+      <c r="Q494" t="inlineStr">
+        <is>
+          <t>中化商务有限公司</t>
+        </is>
+      </c>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>北京市丰台区平安幸福中心B座26层/四川省绵阳市绵山路64号华庭酒店301（绵阳项目部地址）</t>
+        </is>
+      </c>
+      <c r="S494" t="inlineStr">
+        <is>
+          <t>陈维、乔红 0816-2489230</t>
+        </is>
+      </c>
+      <c r="T494" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=82CF9B77EA6B34B36D5A5A385AA5FB)采购需求-医院食堂项目.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>下肢假肢性能评价项目</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>货物/专用设备/医疗设备/其他医疗设备</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:30</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>中国机械进出口（集团）有限公司（北京市丰台区西营街1号院通用时代中心C座）</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:30</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>北京市丰台区西三环南路14号院首科大厦A座4层405号会议中心</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>￥125.520000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>18618312812</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>北京经济技术开发区荣华中路1号</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>康老师，010-58122826</t>
+        </is>
+      </c>
+      <c r="Q495" t="inlineStr">
+        <is>
+          <t>中国机械进出口(集团)有限公司</t>
+        </is>
+      </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>北京市丰台区西营街1号院通用时代中心C座</t>
+        </is>
+      </c>
+      <c r="S495" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士18618312812</t>
+        </is>
+      </c>
+      <c r="T495" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=41D22FA30CE746A1626058910DD9B7)购买招标文件、采购文件登记表.docx</t>
+        </is>
+      </c>
+      <c r="U495" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=5191E07CAFC0F7DD1C532B0CCDE803)7W92-技术需求.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>儿童遗传病快速基因组检测服务（快速全外显子组测序、快速全基因组测序、线粒体检测）</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>服务/医疗卫生和社会服务/医疗卫生服务/其他医疗卫生服务</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>复旦大学附属儿科医院</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:30</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 11:30  下午:13:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>微信公众号“东松投标”</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>2023年07月11日  10:30</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>上海市宁波路1号申华金融大厦10楼会议室</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>￥1000.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>陈广璐、刘舒凡、朱宏敏</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>021-63230480转8614、8625、021-64932646</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>复旦大学附属儿科医院</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>上海市闵行区万源路399号</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>朱宏敏 021-64932646</t>
+        </is>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>上海东松医疗科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>中国上海市宁波路1号申华金融大厦11楼</t>
+        </is>
+      </c>
+      <c r="S496" t="inlineStr">
+        <is>
+          <t>陈广璐、刘舒凡021-63230480转8614、8625</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第三批</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:30</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月19日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>2023年07月20日  09:00</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>￥12421.518180万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S497" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>兰州大学功能有机分子化学国重室圆偏振荧光光谱仪采购项目</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>货物/专用设备/专用仪器仪表/教学专用仪器</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>兰州大学</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:26</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:0:00 至 12:00  下午:12:00 至 24:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>中国政府采购网(www.ccgp.gov.cn)和兰州大学采购管理办公室主页（http://zbb.lzu.edu.cn）采购公告栏，自行下载。</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>兰州大学城关校区西区贵勤楼A103会议室
+投标文件上传地点：投标文件通过兰州大学投标程序客户端上传到电子招投标平台，详见操作说明（见附件）。</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>￥240.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>王琪</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13919403590</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>兰州大学</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>兰州市天水南路222号</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">刘老师、曹老师 0931-8912932  </t>
+        </is>
+      </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>兰州西部投资咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>兰州市城关区南关什字世纪广场B座26楼</t>
+        </is>
+      </c>
+      <c r="S498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">岳香菊  许清  13669396842、15719616733   </t>
+        </is>
+      </c>
+      <c r="T498" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=B5E63963FE659252221CCE16ADBA17)附件1：兰州大学电子招投标系统使用指南（证书办理与项目登记投标）0608.pdf</t>
+        </is>
+      </c>
+      <c r="U498" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=57580ED8C125F674210348A69DDF72)最终版【招标文件】兰州大学功能有机分子化学国重室圆偏振荧光光谱仪采购项目.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>认知功能障碍康复评估与调控技术开发平台项目</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>货物/专用设备/医疗设备/其他医疗设备</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:22</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>￥2000</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>中国机械进出口（集团）有限公司（北京市丰台区西营街1号院通用时代中心C座）</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:30</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>北京市丰台区西三环南路14号院首科大厦A座4层405号会议中心,</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>￥163.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>18618312812</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>北京经济技术开发区荣华中路1号</t>
+        </is>
+      </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>康老师，010-58122826</t>
+        </is>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>中国机械进出口(集团)有限公司</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>北京市丰台区西营街1号院通用时代中心C座</t>
+        </is>
+      </c>
+      <c r="S499" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士 18618312812</t>
+        </is>
+      </c>
+      <c r="T499" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=4533866C51F4C483F0EB214E3BA754)7W91-技术需求.pdf</t>
+        </is>
+      </c>
+      <c r="U499" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=F5E65CF24D5B1CB31FD8B9652A3F73)购买招标文件、采购文件登记表.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>中国科学技术大学学生公寓空调采购项目</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>货物/通用设备/电气设备/生活用电器/空气调节电器/空调机</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>中国科学技术大学</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>安徽</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:22</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:12:00 至 18:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>安招采电子招标采购交易平台（https：//www.52ngs.com）</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>2023年07月12日  14:30</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>合肥市经开区翡翠路与芙蓉路交口港澳广场A座19楼三号会议室</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>￥312.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>汪工</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>13365513306</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>中国科学技术大学</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>合肥市金寨路96号</t>
+        </is>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>宣老师；0551-63602706</t>
+        </is>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>鼎信数智技术集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>合肥市经济技术开发区翡翠路港澳广场A座17-20层</t>
+        </is>
+      </c>
+      <c r="S500" t="inlineStr">
+        <is>
+          <t>汪工；0551-65860109-8611</t>
+        </is>
+      </c>
+      <c r="T500" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=498132822EC6EB6612DD0E1ACA8165)采购需求——中国科学技术大学学生公寓空调采购项目.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>下肢假肢性能评价项目</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>货物/专用设备/医疗设备/其他医疗设备</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:30</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>中国机械进出口（集团）有限公司（北京市丰台区西营街1号院通用时代中心C座）</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:30</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>北京市丰台区西三环南路14号院首科大厦A座4层405号会议中心</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>￥125.520000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>18618312812</t>
+        </is>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>北京经济技术开发区荣华中路1号</t>
+        </is>
+      </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>康老师，010-58122826</t>
+        </is>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>中国机械进出口(集团)有限公司</t>
+        </is>
+      </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>北京市丰台区西营街1号院通用时代中心C座</t>
+        </is>
+      </c>
+      <c r="S501" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士18618312812</t>
+        </is>
+      </c>
+      <c r="T501" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=41D22FA30CE746A1626058910DD9B7)购买招标文件、采购文件登记表.docx</t>
+        </is>
+      </c>
+      <c r="U501" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=5191E07CAFC0F7DD1C532B0CCDE803)7W92-技术需求.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>儿童遗传病快速基因组检测服务（快速全外显子组测序、快速全基因组测序、线粒体检测）</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>服务/医疗卫生和社会服务/医疗卫生服务/其他医疗卫生服务</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>复旦大学附属儿科医院</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:30</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 11:30  下午:13:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>微信公众号“东松投标”</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>2023年07月11日  10:30</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>上海市宁波路1号申华金融大厦10楼会议室</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>￥1000.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>陈广璐、刘舒凡、朱宏敏</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>021-63230480转8614、8625、021-64932646</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>复旦大学附属儿科医院</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>上海市闵行区万源路399号</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>朱宏敏 021-64932646</t>
+        </is>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>上海东松医疗科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>中国上海市宁波路1号申华金融大厦11楼</t>
+        </is>
+      </c>
+      <c r="S502" t="inlineStr">
+        <is>
+          <t>陈广璐、刘舒凡021-63230480转8614、8625</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第三批</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:30</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月19日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>2023年07月20日  09:00</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>￥12421.518180万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S503" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>兰州大学功能有机分子化学国重室圆偏振荧光光谱仪采购项目</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>货物/专用设备/专用仪器仪表/教学专用仪器</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>兰州大学</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:26</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:0:00 至 12:00  下午:12:00 至 24:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>中国政府采购网(www.ccgp.gov.cn)和兰州大学采购管理办公室主页（http://zbb.lzu.edu.cn）采购公告栏，自行下载。</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>兰州大学城关校区西区贵勤楼A103会议室
+投标文件上传地点：投标文件通过兰州大学投标程序客户端上传到电子招投标平台，详见操作说明（见附件）。</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>￥240.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>王琪</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13919403590</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>兰州大学</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>兰州市天水南路222号</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">刘老师、曹老师 0931-8912932  </t>
+        </is>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>兰州西部投资咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>兰州市城关区南关什字世纪广场B座26楼</t>
+        </is>
+      </c>
+      <c r="S504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">岳香菊  许清  13669396842、15719616733   </t>
+        </is>
+      </c>
+      <c r="T504" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=B5E63963FE659252221CCE16ADBA17)附件1：兰州大学电子招投标系统使用指南（证书办理与项目登记投标）0608.pdf</t>
+        </is>
+      </c>
+      <c r="U504" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=57580ED8C125F674210348A69DDF72)最终版【招标文件】兰州大学功能有机分子化学国重室圆偏振荧光光谱仪采购项目.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>认知功能障碍康复评估与调控技术开发平台项目</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>货物/专用设备/医疗设备/其他医疗设备</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:22</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>￥2000</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>中国机械进出口（集团）有限公司（北京市丰台区西营街1号院通用时代中心C座）</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:30</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>北京市丰台区西三环南路14号院首科大厦A座4层405号会议中心,</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>￥163.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>18618312812</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>国家康复辅具研究中心</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>北京经济技术开发区荣华中路1号</t>
+        </is>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>康老师，010-58122826</t>
+        </is>
+      </c>
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>中国机械进出口(集团)有限公司</t>
+        </is>
+      </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>北京市丰台区西营街1号院通用时代中心C座</t>
+        </is>
+      </c>
+      <c r="S505" t="inlineStr">
+        <is>
+          <t>冷女士、姜女士 18618312812</t>
+        </is>
+      </c>
+      <c r="T505" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=4533866C51F4C483F0EB214E3BA754)7W91-技术需求.pdf</t>
+        </is>
+      </c>
+      <c r="U505" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=F5E65CF24D5B1CB31FD8B9652A3F73)购买招标文件、采购文件登记表.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>中国科学技术大学学生公寓空调采购项目</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>货物/通用设备/电气设备/生活用电器/空气调节电器/空调机</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>中国科学技术大学</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>安徽</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:22</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:12:00 至 18:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>安招采电子招标采购交易平台（https：//www.52ngs.com）</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>2023年07月12日  14:30</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>合肥市经开区翡翠路与芙蓉路交口港澳广场A座19楼三号会议室</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>￥312.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>汪工</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>13365513306</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>中国科学技术大学</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>合肥市金寨路96号</t>
+        </is>
+      </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>宣老师；0551-63602706</t>
+        </is>
+      </c>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>鼎信数智技术集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>合肥市经济技术开发区翡翠路港澳广场A座17-20层</t>
+        </is>
+      </c>
+      <c r="S506" t="inlineStr">
+        <is>
+          <t>汪工；0551-65860109-8611</t>
+        </is>
+      </c>
+      <c r="T506" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=498132822EC6EB6612DD0E1ACA8165)采购需求——中国科学技术大学学生公寓空调采购项目.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>楼体保温及屋面防水维修工程（中心校区数学楼）</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>工程/其他建筑工程</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>吉林大学</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:15</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月30日每日上午:8:00 至 11:30  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>￥1000</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>中招联合招标采购平台（http://www.365trade.com.cn）</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>纸质版标书递交地点为吉林大学招标与采购管理中心412会议室（吉林省长春市前卫路10号,吉林大学前卫校区北门外,商贸楼)、线上递交网址：中招联合招标采购平台（http://www.365trade.com.cn）。</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>￥749.210500万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>贾文博</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>0431-84998673</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>吉林大学</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>吉林省长春市前进大街2699号吉林大学中心校区商贸楼四楼</t>
+        </is>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>白老师0431-85167313</t>
+        </is>
+      </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>吉林中信工程建设咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>长春市临河街5062号天地大厦A座6楼</t>
+        </is>
+      </c>
+      <c r="S507" t="inlineStr">
+        <is>
+          <t>贾文博0431-84998673</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>中国医学科学院基础医学研究所物业服务采购项目</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>中国医学科学院基础医学研究所</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:15</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月29日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>2023年06月30日  09:00</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行响应，请在响应当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>￥153.130000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>徐婧婧</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>010-83084953</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>中国医学科学院基础医学研究所</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>北京市东城区东单三条5号</t>
+        </is>
+      </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>010-69156927</t>
+        </is>
+      </c>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S508" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>保山边境管理支队2023年新招录辅警被装采购项目</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>货物/纺织原料、毛皮、被服装具/被服装具/床上装具/被罩,货物/纺织原料、毛皮、被服装具/被服装具/床上装具/床褥单,货物/纺织原料、毛皮、被服装具/被服装具/被服/被服附件/皮带,货物/纺织原料、毛皮、被服装具/被服装具/被服/被服附件/帽子,货物/纺织原料、毛皮、被服装具/被服装具/被服/鞋、靴及附件/运动鞋或靴,货物/纺织原料、毛皮、被服装具/被服装具/被服/鞋、靴及附件/皮鞋或靴,货物/纺织原料、毛皮、被服装具/被服装具/被服/制服</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>保山边境管理支队</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:13</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:8:30 至 12:00  下午:12:00 至 17:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>全国公共资源交易平台（云南省）/云南省公共资源交易信息网（网址：http://ggzy.yn.gov.cn/），选择地区“保山市”，切换至“保山市公共资源交易电子服务系统/全国公共资源交易平台（云南省·保山市）</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:00</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>保山市公共资源交易中心一号开标室（云南省保山市隆阳区兰城路传媒中心二号楼4楼）</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>￥89.305000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>宁工</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>0871-65895558</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>保山边境管理支队</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>云南省保山市隆阳区象山路135号</t>
+        </is>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>赵警官、李警官0875-2868146</t>
+        </is>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>云南通拓招标有限公司</t>
+        </is>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>昆明市盘龙区同德昆明广场B区4栋501室</t>
+        </is>
+      </c>
+      <c r="S509" t="inlineStr">
+        <is>
+          <t>宁工、年工0871-65895558</t>
+        </is>
+      </c>
+      <c r="T509" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=092E5DED666DE4975A9345A2A44DF0)公开招标公告（已盖章）.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>民航局清算中心云平台扩容升级项目</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>中国民用航空局清算中心</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>2023年06月20日  16:05</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月11日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:00</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>￥982.110000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>姜文涛</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>010-83084975</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>中国民用航空局清算中心</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>北京市朝阳区东坝大街曹各庄南侧红楼</t>
+        </is>
+      </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>010-84669029</t>
+        </is>
+      </c>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S510" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>广东省深圳市福田区消防救援大队福景、福沙、梅林政府专职消防队员商业保险服务</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>服务/金融服务/保险服务/人寿保险服务</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>深圳市福田区消防救援大队</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
           <t>广东</t>
         </is>
       </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>2023年06月16日  17:24</t>
-        </is>
-      </c>
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>2023年06月19日至2023年06月26日每日上午:9:00 至 12:00  下午:14:00 至 17:30（北京时间，法定节假日除外）</t>
-        </is>
-      </c>
-      <c r="G482" t="inlineStr">
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:57</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
         <is>
           <t>￥500</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>广州市天河区广州大道北520号中创盈科大厦12楼1202室</t>
-        </is>
-      </c>
-      <c r="I482" t="inlineStr">
-        <is>
-          <t>2023年07月07日  14:30</t>
-        </is>
-      </c>
-      <c r="J482" t="inlineStr">
-        <is>
-          <t>广州市天河区广州大道北520号中创盈科大厦12楼1202室</t>
-        </is>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>￥249.991600万元（人民币）</t>
-        </is>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>吴小姐</t>
-        </is>
-      </c>
-      <c r="M482" t="inlineStr">
-        <is>
-          <t>020-88526352</t>
-        </is>
-      </c>
-      <c r="N482" t="inlineStr">
-        <is>
-          <t>国家海洋局南海标准计量中心</t>
-        </is>
-      </c>
-      <c r="O482" t="inlineStr">
-        <is>
-          <t>广州市海珠区新港西路155号</t>
-        </is>
-      </c>
-      <c r="P482" t="inlineStr">
-        <is>
-          <t>方先生/020-84205272</t>
-        </is>
-      </c>
-      <c r="Q482" t="inlineStr">
-        <is>
-          <t>国盛招标项目管理咨询（广州）有限公司</t>
-        </is>
-      </c>
-      <c r="R482" t="inlineStr">
-        <is>
-          <t>广州市天河区广州大道北520号中创盈科大厦12楼1202室</t>
-        </is>
-      </c>
-      <c r="S482" t="inlineStr">
-        <is>
-          <t>020-88524605/020-88526352</t>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>深圳市罗湖区太白路3031号中冠商务大厦1402A-1403B</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>2023年07月03日  14:30</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>深圳市罗湖区太白路3031号中冠商务大厦1402A-1403B</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>￥21.825000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>甘工</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>0755-83186119</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>深圳市福田区消防救援大队</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>深圳市福田区梅林街道梅华路街114号</t>
+        </is>
+      </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>甘工/0755-83186119</t>
+        </is>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>深圳市特采招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>深圳市罗湖区太白路3031号中冠商务大厦1402A-1403B</t>
+        </is>
+      </c>
+      <c r="S511" t="inlineStr">
+        <is>
+          <t>周工/13560094485</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2023修缮-城市轨道交通轮轨关系自动化检测能力建设项目</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>货物/其他货物/其他不另分类的物品</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>中国安全生产科学研究院</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:54</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月29日每日上午:9:00 至 11:30  下午:13:30 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>在中招联合招标采购网（www.365trade.com.cn）注册后，在线下载</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>2023年07月13日  14:00</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>中招国际招标有限公司6层会议室（北京市海淀区学院南路62号中关村资本大厦）</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>￥285.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>龚金山</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>010-62108172</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>中国安全生产科学研究院</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>北京市朝阳区北苑路32号院甲1号楼安全大厦</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>姜秀慧 010-84911559</t>
+        </is>
+      </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>中招国际招标有限公司</t>
+        </is>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>010-62108172</t>
+        </is>
+      </c>
+      <c r="S512" t="inlineStr">
+        <is>
+          <t>龚金山、左刚涛</t>
+        </is>
+      </c>
+      <c r="T512" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=51EF70FF65C9DB84E5DDEC6C155B56)采购需求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>中南大学校本部道路维修工程</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>工程/修缮工程/其他建筑物、构筑物修缮</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>中南大学</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:49</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 12:00  下午:14:30 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>￥400</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>天鉴国际工程管理有限公司（地址：长沙市雨花区金海路128号国际研创中心A6栋4楼409室）</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>2023年07月11日  14:00</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>中南大学校本部第二办公楼二楼第一开标室（211室）</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>￥342.574233万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>肖老师</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>0731-88836792</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>中南大学</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>湖南省长沙市麓山南路932号，中南大学采购与招标管理中心</t>
+        </is>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>肖老师、0731-88836792</t>
+        </is>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>天鉴国际工程管理有限公司</t>
+        </is>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>长沙市雨花区金海路128号国际研创中心A6栋</t>
+        </is>
+      </c>
+      <c r="S513" t="inlineStr">
+        <is>
+          <t>刘展、刘冰、0731-85713091-8431、15608426724</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>某单位2023年第五批科研设备采购项目</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>货物/专用设备/电工、电子专用生产设备/电子工业专用生产设备</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>某单位</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:46</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 12:00  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>北京市东城区东四十条甲22号南新仓商务大厦B座922</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>天恒招标有限公司会议室（北京市东城区东四十条甲22号南新仓商务大厦B座922）。</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>￥0.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>刘泳岐、李雅奇、陈洁、刘戈、杨洋</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>010-53350083</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>某单位</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>冯老师 010-50918086</t>
+        </is>
+      </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>天恒招标有限公司</t>
+        </is>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>北京市东城区东四十条甲22号南新仓商务大厦B座922</t>
+        </is>
+      </c>
+      <c r="S514" t="inlineStr">
+        <is>
+          <t>刘泳岐、李雅奇、陈洁、刘戈、杨洋 010-53350083</t>
+        </is>
+      </c>
+      <c r="T514" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=52F708DF7FD3E5D9A49C376A387FA5)招标公告.docx</t>
+        </is>
+      </c>
+      <c r="U514" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=4D2A155FD4625F6FB666F6958FD421)采购文件获取登记表.xls</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>国家体育总局射击射箭运动管理中心+物业管理服务+国家体育总局射击射箭运动管理中心综合物业服务</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>国家体育总局射击射箭运动管理中心</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:40</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月11日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:00</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>￥1500.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>姜文涛</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>010-83084975</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>国家体育总局射击射箭运动管理中心</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>北京市石景山区福田寺甲3号</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>010-88966808</t>
+        </is>
+      </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S515" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>大连理工大学新建学生公寓家具采购项目</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>货物/家具用具/其他家具用具</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:30</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:8:30 至 11:30  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>辽宁中晟项目管理有限公司（大连市沙河口区高尔基路454号6楼）</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:30</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>辽宁省大连市高新园区凌工路2号大连理工大学（南门）科技园大厦C座414室。</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>￥482.991200万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>佟菲、孙婕帆</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>0411-88328999</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>辽宁省大连市高新园区凌工路2号大连理工大学（南门）科技园大厦C座411室。</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>孙老师；0411-84706297</t>
+        </is>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>辽宁中晟项目管理有限公司</t>
+        </is>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>大连市沙河口区高尔基路454号6楼</t>
+        </is>
+      </c>
+      <c r="S516" t="inlineStr">
+        <is>
+          <t>佟菲、孙婕帆0411-88328999</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>中国气象局气象探测中心研发数值预报潜势与天气雷达自适应扫描相结合的目标观测技术（基于协同和目标观测的雷达试验及应用）采购项目</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>中国气象局气象探测中心</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:15</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月10日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>￥149.200000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>李国威</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>010-55602757</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>中国气象局气象探测中心</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街46号</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>010-58993234</t>
+        </is>
+      </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S517" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>重庆大学高性能计算集群采购</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>货物/通用设备/计算机设备及软件/计算机设备/巨/大/中型计算机/大型计算机</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>重庆大学</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:12</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 12:00  下午:14:00 至 18:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>“中国政府采购网（http://www.ccgp.gov.cn）”、“重庆大学政府采购与招投标管理中心（http://ztbzx.cqu.edu.cn）”网上下载</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>2023年07月11日  10:00</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>重庆市公共资源交易中心开标厅（地址：重庆市渝北区青枫北路6号渝兴广场B10栋2层）</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>￥450.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>刘祖华</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>023-65102678</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>重庆大学</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>重庆市沙坪坝区沙正街174号</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>王利昕（采购组织）023-65106239 刘祖华（项目咨询）023-65102678  张仁华（技术咨询）023-65106446（13594541327）</t>
+        </is>
+      </c>
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>重庆赛迪工程咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>重庆市渝中区双钢路1号</t>
+        </is>
+      </c>
+      <c r="S518" t="inlineStr">
+        <is>
+          <t>文静 023-63545924</t>
+        </is>
+      </c>
+      <c r="T518" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=549FD54564B53D2E2EC5BCC36F728C)重庆大学高性能计算集群采购-招标文件-定稿版-6.20挂网.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2023年国家免疫规划疫苗集中采购项目-项目采购第二批</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:10</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月16日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>2023年07月17日  09:00</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>￥12421.518180万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>卢昀灿灿</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>010-55602722</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>中国疾病预防控制中心</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>北京市西城区南纬路27号</t>
+        </is>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>010-58900166</t>
+        </is>
+      </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S519" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2023年教育网出口宽带采购</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>服务/其他服务</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:08</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:00 至 14:00  下午:12:00 至 21:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼317室）</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:30</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼301开标室）</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>￥440.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>谢凯枫</t>
+        </is>
+      </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>0571-89731841</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>杭州市西湖区余杭塘路866号</t>
+        </is>
+      </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>俞老师 0571-87952726</t>
+        </is>
+      </c>
+      <c r="Q520" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司</t>
+        </is>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>文三路90号东部软件园1号楼3楼</t>
+        </is>
+      </c>
+      <c r="S520" t="inlineStr">
+        <is>
+          <t>谢凯枫  0571-89731841</t>
+        </is>
+      </c>
+      <c r="T520" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=7FA404B6A7E42C3D38FC6DD2F8BFF9)报名表.doc</t>
+        </is>
+      </c>
+      <c r="U520" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=C49C37616C276ED7C7F6E1D3A50E31)ZJ-2361611-04  2023年教育网出口宽带采购项目-需求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>浙江省消防救援总队2023年度全省消防安全风险防控和救援指挥应用建设（消防员成长管理、队伍智慧管理）采购项目</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/软件开发服务/基础软件开发服务</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>浙江省消防救援总队</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:07</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月30日每日上午:9:00 至 11:30  下午:13:30 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>￥200</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>浙江省永嘉县南城街道繁华路1号2号楼202室</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>2023年07月20日  14:30</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>杭州市下城区孩儿巷129号消防总队采购中心7楼开标室</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>￥124.535653万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>徐速</t>
+        </is>
+      </c>
+      <c r="M521" t="inlineStr">
+        <is>
+          <t>13587743453</t>
+        </is>
+      </c>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>浙江省消防救援总队</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>杭州市文晖路319号</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>联系人：李先生 联系方式：0571-85863568</t>
+        </is>
+      </c>
+      <c r="Q521" t="inlineStr">
+        <is>
+          <t>温州市滨海招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>浙江省永嘉县上塘南城街道繁华路1号2号楼202室</t>
+        </is>
+      </c>
+      <c r="S521" t="inlineStr">
+        <is>
+          <t>联系人：徐速  联系方式：0577-67259383</t>
+        </is>
+      </c>
+      <c r="T521" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=443F52F514A0E5736FBA108C00D1C7)终稿.队伍智慧管理采购文件.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>中华人民共和国新疆出入境边防检查总站大数据中心基础动力系统采购项目</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>中华人民共和国新疆出入境边防检查总站</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>新疆</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>2023年06月20日  15:05</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月10日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>￥368.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>陆瑶</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>010-55602563</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>中华人民共和国新疆出入境边防检查总站</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>新疆维吾尔自治区乌鲁木齐市天山区团结路1551号</t>
+        </is>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>0991-8512158</t>
+        </is>
+      </c>
+      <c r="Q522" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S522" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>浅水多波束系统采购项目</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>货物/专用设备/海洋仪器设备/海洋船用船载仪器设备</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>中国地质调查局烟台海岸带地质调查中心</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:59</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>北京市朝阳区新源南路6号京城大厦B座505室</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>北京金龙潭御瑞酒店三层第二会议室（北京市海淀区西三环北路71号）</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>￥230.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>张萌、王磊、位奎奎、符群慕</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>010-84865055-201、203、156</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>中国地质调查局烟台海岸带地质调查中心</t>
+        </is>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>山东省烟台市芝罘区机场路287号</t>
+        </is>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>王老师，联系电话13280307799 纪检审计室：联系人：王老师，联系电话0535-2901638</t>
+        </is>
+      </c>
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>中信国际招标有限公司</t>
+        </is>
+      </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>北京市朝阳区新源南路6号京城大厦A座8层</t>
+        </is>
+      </c>
+      <c r="S523" t="inlineStr">
+        <is>
+          <t>张萌、王磊、位奎奎、符群慕  010-84865055-201、203、156</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>四川省消防救援总队成都与训保支队执勤保障器材采购项目</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>货物/其他货物/其他不另分类的物品</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>四川省消防救援总队</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:52</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:12:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>http://www.scbidding.com</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>2023年07月11日  10:00</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>成都市锦江区墨香路87号8栋4楼</t>
+        </is>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>￥503.224600万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>李老师</t>
+        </is>
+      </c>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>028-65731881/86661810</t>
+        </is>
+      </c>
+      <c r="N524" t="inlineStr">
+        <is>
+          <t>四川省消防救援总队</t>
+        </is>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>成都市金牛区迎宾大道518号</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>刘老师；028-63003285</t>
+        </is>
+      </c>
+      <c r="Q524" t="inlineStr">
+        <is>
+          <t>四川轩辕招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>成都市锦江区墨香路87号8栋4楼</t>
+        </is>
+      </c>
+      <c r="S524" t="inlineStr">
+        <is>
+          <t>李老师；028-65731881/86661810</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2023年青海省飞机人工增雨（雪）作业服务采购</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>服务/专业技术服务/气象服务</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>青海省气象灾害防御技术中心</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:49</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月29日每日上午:8:00 至 12:00  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>中国政府采购下载</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街46号中国气象局北区7号楼3层大会议室（科技大楼前草坪西侧）</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>￥924.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>张老师</t>
+        </is>
+      </c>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>010-68406136</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>青海省气象灾害防御技术中心</t>
+        </is>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青海省西宁市五四大街19号  </t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>郭先生 0971-6135315</t>
+        </is>
+      </c>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>中国气象局气象发展与规划院（中国气象局政府采购中心）</t>
+        </is>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街46号北区8号楼（中国气象局气象发展与规划院办公楼）</t>
+        </is>
+      </c>
+      <c r="S525" t="inlineStr">
+        <is>
+          <t>张老师 010-68406136</t>
+        </is>
+      </c>
+      <c r="T525" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=F265CDA4B75A77224023063CAE8B1C)招标文件加密版.rar</t>
+        </is>
+      </c>
+      <c r="U525" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=D342F131B2109723368500E548BD90)领取文件申请表230605.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024年浙江大学网络安全等级保护测评服务</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/信息技术咨询服务/其他信息技术咨询服务</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:49</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:00 至 14:00  下午:12:00 至 21:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼317室）</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:30</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼301开标室）</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>￥120.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>谢凯枫</t>
+        </is>
+      </c>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>0571-89731841</t>
+        </is>
+      </c>
+      <c r="N526" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>杭州市西湖区余杭塘路866号</t>
+        </is>
+      </c>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>俞老师 0571-87952726</t>
+        </is>
+      </c>
+      <c r="Q526" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司</t>
+        </is>
+      </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>文三路90号东部软件园1号楼3楼</t>
+        </is>
+      </c>
+      <c r="S526" t="inlineStr">
+        <is>
+          <t>谢凯枫  0571-89731841</t>
+        </is>
+      </c>
+      <c r="T526" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=1380BE3115A3845A2D2B55154E46DF)ZJ-2361611-03  2024年浙江大学网络安全等级保护测评服务项目-需求.docx</t>
+        </is>
+      </c>
+      <c r="U526" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=557145C4BF9B69AA73ADA9E05DBC4B)报名表.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2023年公共服务平台维保	</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/运营服务/基础设施运营服务</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:41</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:00 至 14:00  下午:12:00 至 21:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼317室）</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:30</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼301开标室）</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>￥160.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>谢凯枫</t>
+        </is>
+      </c>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>0571-89731841</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>杭州市西湖区余杭塘路866号</t>
+        </is>
+      </c>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>俞老师 0571-87952726</t>
+        </is>
+      </c>
+      <c r="Q527" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司</t>
+        </is>
+      </c>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>文三路90号东部软件园1号楼3楼</t>
+        </is>
+      </c>
+      <c r="S527" t="inlineStr">
+        <is>
+          <t>谢凯枫  0571-89731841</t>
+        </is>
+      </c>
+      <c r="T527" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=606DC44BBCF213C79ACDE2EC61C1D7)报名表.doc</t>
+        </is>
+      </c>
+      <c r="U527" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=F916ED5198AB2F642AA4C7EB25227A)ZJ-2361611-02  2023年公共服务平台维保项目-需求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2023年专有云平台运维服务</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/运营服务/基础设施运营服务</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:36</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:00 至 14:00  下午:12:00 至 21:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼317室）</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:30</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司（杭州市文三路90号东部软件园1号楼3楼301开标室）</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>￥100.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>谢凯枫</t>
+        </is>
+      </c>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>0571-89731841</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>杭州市西湖区余杭塘路866号</t>
+        </is>
+      </c>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>俞老师 0571-87952726</t>
+        </is>
+      </c>
+      <c r="Q528" t="inlineStr">
+        <is>
+          <t>浙江国际招投标有限公司</t>
+        </is>
+      </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>文三路90号东部软件园1号楼3楼</t>
+        </is>
+      </c>
+      <c r="S528" t="inlineStr">
+        <is>
+          <t>谢凯枫  0571-89731841</t>
+        </is>
+      </c>
+      <c r="T528" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=02CE411E2DA63DB7795EFCBDB9BCF4)报名表.doc</t>
+        </is>
+      </c>
+      <c r="U528" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=D20FE39D343A73C3B9E9470D027423)ZJ-2361611-01  2023年专有云平台运维服务项目-需求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院埋地管道防腐层状况检测仪和城市燃气泄漏检测仪</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>货物/其他货物/其他不另分类的物品</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:35</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街9号理工科技大厦2006室</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>￥63.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>王女士/韩女士</t>
+        </is>
+      </c>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010-81166133/6131　</t>
+        </is>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>北京市朝阳区和平街西苑2号</t>
+        </is>
+      </c>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">杨老师 010-59068601 </t>
+        </is>
+      </c>
+      <c r="Q529" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市丰台区通用时代中心B座1623　　　wangjian32@cnic.gt.cn/hanyidi@cnic.gt.cn </t>
+        </is>
+      </c>
+      <c r="S529" t="inlineStr">
+        <is>
+          <t>王女士/韩女士 010-81166133/6131</t>
+        </is>
+      </c>
+      <c r="T529" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=5A3C4A367E7434E1F5343902508DC0)标书购买登记表.xlsx</t>
+        </is>
+      </c>
+      <c r="U529" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=13DE197E6138F089FC725A9AF1A5C1)公告.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>上海交通大学键合机</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>货物/通用设备/机械设备/金属加工设备/金属焊接设备</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>上海交通大学</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:29</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>邮件获取</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:30</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>上海市静安区汶水路299弄25-26号10号楼2楼</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>￥350.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>王逸伦 陈忆馨</t>
+        </is>
+      </c>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>86-21-53087656-113、86-21-53087656-321</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>上海交通大学</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>上海市闵行区东川路800号</t>
+        </is>
+      </c>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>招采办经办人：刘老师 86-21-54744366  技术联系人：程老师 18621517390</t>
+        </is>
+      </c>
+      <c r="Q530" t="inlineStr">
+        <is>
+          <t>上海健生教育配置招标有限公司</t>
+        </is>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>上海市静安区汶水路299弄25-26号10号楼2楼</t>
+        </is>
+      </c>
+      <c r="S530" t="inlineStr">
+        <is>
+          <t>王逸伦 陈忆馨  86-21-53087656-113、86-21-53087656-321</t>
+        </is>
+      </c>
+      <c r="T530" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=7EE7C7D5CC6FA96531B628A6817117)购标登记表.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>中国科学院长春光学精密机械与物理研究所高功率超窄线宽的可见近红外连续扫描光谱辐射定标光源采购项目</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/其他仪器仪表</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>中国科学院长春光学精密机械与物理研究所</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:27</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>http://www.oitccas.com/；北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>中国科学院长春光学精密机械与物理研究所专家公寓楼三层会议室（吉林省长春市二道区南湖大路与福州街交叉口西南200米附近）</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>￥140.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>王军、郭宇涵、李雯</t>
+        </is>
+      </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>010-68290508</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>中国科学院长春光学精密机械与物理研究所</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>吉林长春市东南湖大路3888号</t>
+        </is>
+      </c>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>李老师；0431--86176868</t>
+        </is>
+      </c>
+      <c r="Q531" t="inlineStr">
+        <is>
+          <t>东方国际招标有限责任公司</t>
+        </is>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="S531" t="inlineStr">
+        <is>
+          <t>王军、郭宇涵、李雯；010-68290508</t>
+        </is>
+      </c>
+      <c r="T531" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=F0EF5443B93F0831A7CD7AB4DE22BF)0479-技术部分.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>数字化场景多要素提取智能模型构建与可视化平台开发</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/其他信息技术服务</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>中国水利水电科学研究院</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:23</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月29日每日上午:9:00 至 11:30  下午:13:30 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>北京市丰台区南四环西路188号总部基地18区11号楼</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:00</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>北京市丰台区南四环西路188号总部基地18区11号楼</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>￥280.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>杨泽华、卢晓娜</t>
+        </is>
+      </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>010-52205270/5119</t>
+        </is>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>中国水利水电科学研究院</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>北京市海淀区车公庄西路20号</t>
+        </is>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>姜工010-68781599</t>
+        </is>
+      </c>
+      <c r="Q532" t="inlineStr">
+        <is>
+          <t>北京江河润泽工程管理咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>北京市丰台区南四环西路188号总部基地18区11号楼</t>
+        </is>
+      </c>
+      <c r="S532" t="inlineStr">
+        <is>
+          <t>杨泽华、卢晓娜010-52205270/5119</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院2023年压力管道检验能力建设设备采购</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>货物/其他货物/其他不另分类的物品</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:18</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街9号理工科技大厦2006室</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>￥90.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>王女士/韩女士</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>010-81166133/6131</t>
+        </is>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">杨老师 010-59068601 </t>
+        </is>
+      </c>
+      <c r="P533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市朝阳区和平街西苑2号　</t>
+        </is>
+      </c>
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市丰台区通用时代中心B座1623　　　wangjian32@cnic.gt.cn/hanyidi@cnic.gt.cn </t>
+        </is>
+      </c>
+      <c r="S533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">王女士/韩女士 010-81166133/6131　</t>
+        </is>
+      </c>
+      <c r="T533" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=74D7137B59E6F5135FDE1026BBBAD0)标书购买登记表.xlsx</t>
+        </is>
+      </c>
+      <c r="U533" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=FA8B7E0872A65B30ECB490A4DEC73B)公告03-.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院2023年压力管道检验能力建设设备采购</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>货物/其他货物/其他不另分类的物品</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:14</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街9号理工科技大厦2006室</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>￥116.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>王女士/韩女士</t>
+        </is>
+      </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>010-81166133/6131</t>
+        </is>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">杨老师 010-59068601 </t>
+        </is>
+      </c>
+      <c r="P534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市朝阳区和平街西苑2号　</t>
+        </is>
+      </c>
+      <c r="Q534" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市丰台区通用时代中心B座1623　　　wangjian32@cnic.gt.cn/hanyidi@cnic.gt.cn </t>
+        </is>
+      </c>
+      <c r="S534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">王女士/韩女士 010-81166133/6131　</t>
+        </is>
+      </c>
+      <c r="T534" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=4AE9C5BEF3C6B7013C8A2CF13D4D94)标书购买登记表.xlsx</t>
+        </is>
+      </c>
+      <c r="U534" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=71705C413B8F4B64B125B933400948)公告02-.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院2023年压力管道检验能力建设设备采购</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>货物/其他货物/其他不另分类的物品</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>2023年06月20日  14:10</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南大街9号理工科技大厦2006室</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>￥62.800000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>王女士/韩女士</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>010-81166133/6131</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>中国特种设备检测研究院</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">杨老师 010-59068601 </t>
+        </is>
+      </c>
+      <c r="P535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市朝阳区和平街西苑2号　</t>
+        </is>
+      </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>中国仪器进出口集团有限公司</t>
+        </is>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京市丰台区通用时代中心B座1623　　　wangjian32@cnic.gt.cn/hanyidi@cnic.gt.cn </t>
+        </is>
+      </c>
+      <c r="S535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">王女士/韩女士 010-81166133/6131　</t>
+        </is>
+      </c>
+      <c r="T535" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=D97D6A56C1E2297A8BAFDB34962478)标书购买登记表.xlsx</t>
+        </is>
+      </c>
+      <c r="U535" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=000B3A454B9555336E76AAE1D4A4CD)公告01-.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>广州白云机场海关综合技术服务中心卫生检疫技术部检测试剂耗材采购项目采购包1（第三次）</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>货物/医药品/生物化学制品/生物制剂/微生物培养基</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>广州白云机场海关综合技术服务中心</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>2023年06月20日  13:36</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 12:00  下午:12:00 至 17:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>“诚E招电子采购交易平台”（网址：https://www.chengezhao.com/）</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>2023年07月11日  14:30</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>广州市天河区天河北路423号远晖商厦8楼2号会议室</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>￥15.346000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>刘宏慧、池锦俊、吴松浩、简敏成、巫克纯</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>13929586770（刘宏慧/liuhh@gcbidding.com）</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>广州白云机场海关综合技术服务中心</t>
+        </is>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>广东省广州市白云区人和镇广州白云机场空港四路横一路</t>
+        </is>
+      </c>
+      <c r="P536" t="inlineStr">
+        <is>
+          <t>杨先生 020-81135716</t>
+        </is>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>公诚管理咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>广州市天河区天河北路423号远晖商厦8楼820室</t>
+        </is>
+      </c>
+      <c r="S536" t="inlineStr">
+        <is>
+          <t>13929586770（刘宏慧/liuhh@gcbidding.com）</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北方海区通航水域海洋基础地理数据采集及预处理项目（二期工程） </t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>服务/其他服务</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>交通运输部北海航海保障中心天津海事测绘中心</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>2023年06月20日  13:12</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:14:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>天津自贸试验区（空港经济区）环河北路80号空港商务园东区E8号楼B座801室（天津滨海国际招标发展有限公司）</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>天津市河西区友谊路与平江道交口东南侧大安大厦A座第7层C1室</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>￥450.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>于双娜、张洁、赵薇、刘娜</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>022-28136208、15122436058</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>交通运输部北海航海保障中心天津海事测绘中心</t>
+        </is>
+      </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>天津市河西区郁江道21号</t>
+        </is>
+      </c>
+      <c r="P537" t="inlineStr">
+        <is>
+          <t>边老师 022-58873051</t>
+        </is>
+      </c>
+      <c r="Q537" t="inlineStr">
+        <is>
+          <t>天津滨海国际招标发展有限公司</t>
+        </is>
+      </c>
+      <c r="R537" t="inlineStr">
+        <is>
+          <t>天津市河西区友谊路与平江道交口东南侧大安大厦A座第7层C1室</t>
+        </is>
+      </c>
+      <c r="S537" t="inlineStr">
+        <is>
+          <t>于双娜、张洁、赵薇、刘娜 022-28136208、15122436058</t>
+        </is>
+      </c>
+      <c r="T537" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=AAF5078427AA2FFAF9191302407A6F)文件购买登记表.docx</t>
+        </is>
+      </c>
+      <c r="U537" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=A1436063612E655F83F23CD0B79BC3)BHGJ-2023-G-075招标公告.doc</t>
+        </is>
+      </c>
+      <c r="V537" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=7D75E5C978C9D75926697EFFCB3601)BHGJ-2023-G-075项目需求书.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>武汉理工大学文献资源建设（一期）采购项目</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>服务/电信和其他信息传输服务/互联网信息服务</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>武汉理工大学</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>2023年06月20日  13:07</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 12:00  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>阳光招采电子招标投标交易平台（网址：http://www.yangguangzhaocai.com/）</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>2023年07月12日  14:30</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>湖北国华项目管理咨询有限公司（武昌区中北路109号中铁1818中心10楼）5号会议室。
+逾期未递交投标文件的，采购代理机构将视为未递交投标文件。
+凡是购买了招标文件但决定不参加投标的潜在投标人，请在开标截止3日前以书面形式通知采购代理机构。若该项目因参与投标的投标人不足3家而进行重新招标的，未予书面通知的潜在投标人将可能被限制重新参加该项目的投标。</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>￥314.100000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>张琳林、宋黎明、王刚、汪树新</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>027-87272718</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>武汉理工大学</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>湖北省武汉市洪山区珞狮路122号</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>陈老师 027-87285928</t>
+        </is>
+      </c>
+      <c r="Q538" t="inlineStr">
+        <is>
+          <t>湖北国华项目管理咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>武汉市武昌区中北路109号中铁1818中心10楼</t>
+        </is>
+      </c>
+      <c r="S538" t="inlineStr">
+        <is>
+          <t>张琳林、宋黎明、王刚、汪树新、027-87272718、1451502801@qq.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>高性能服务器采购</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>货物/通用设备/计算机设备及软件/计算机设备/服务器</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>南京理工大学</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>2023年06月20日  11:57</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>线上（zbpt.njust.edu.cn/）</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>2023年07月12日  14:30</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>南京理工大学科技园A2号楼518室（南京市玄武区光华路129-3号）</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>￥605.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>李娆/王冬</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>025-83603378</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>南京理工大学</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>南京市孝陵卫200号</t>
+        </is>
+      </c>
+      <c r="P539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">沈老师 025-84303820 </t>
+        </is>
+      </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>江苏省华采招标有限公司</t>
+        </is>
+      </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>南京市建邺区嘉陵江东街8号综合体B3栋一单元16层</t>
+        </is>
+      </c>
+      <c r="S539" t="inlineStr">
+        <is>
+          <t>李娆/王冬 025-83603378</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>宝坻区消防救援支队家具采购项目</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>服务/批发和零售服务/零售服务/五金、家具和室内装修材料专门零售服务,服务/维修和保养服务/家具维修和保养服务,服务/租赁服务（不带操作员）/家具、用具和装具租赁服务,货物/家具用具/其他家具用具,货物/家具用具/家用家具零配件,货物/家具用具/组合家具</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>宝坻区消防救援支队</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>2023年06月20日  11:39</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:14:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>￥400</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>天津市西青区悦雅国际1113室</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>天津市西青区悦雅国际1113室</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>￥76.754800万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>李亦南</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>022-23448870</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>宝坻区消防救援支队</t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>天津市宝城区钰华街道南三路</t>
+        </is>
+      </c>
+      <c r="P540" t="inlineStr">
+        <is>
+          <t>王先生 022-29241385</t>
+        </is>
+      </c>
+      <c r="Q540" t="inlineStr">
+        <is>
+          <t>天津慧群建设工程咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>天津市西青区悦雅国际1113室</t>
+        </is>
+      </c>
+      <c r="S540" t="inlineStr">
+        <is>
+          <t>李先生 022-23448870</t>
+        </is>
+      </c>
+      <c r="T540" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=9A99DC71D96F80F506924321A72B62)项目需求书.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2023年度特勤支队基层队站餐饮社会化服务项目</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>服务/住宿和餐饮服务/餐饮服务</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>上海市消防救援总队特勤支队</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>2023年06月20日  11:05</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>￥800</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>上海市曹杨路528弄35号（中世办公楼）5楼或关注微信公众号“中世建咨”</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>上海市曹杨路528弄35号（中世办公楼）会议室（详见二楼大屏幕）</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>￥295.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>邢楠、黄梦如、邵雅妮</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>021-52555810、021-62441381</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>上海市消防救援总队特勤支队</t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>上海市浦东新区杨高南路1190号</t>
+        </is>
+      </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>王老师 021-50905125</t>
+        </is>
+      </c>
+      <c r="Q541" t="inlineStr">
+        <is>
+          <t>上海中世建设咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>上海市普陀区曹杨路528弄35号（中世办公楼）</t>
+        </is>
+      </c>
+      <c r="S541" t="inlineStr">
+        <is>
+          <t>邢楠、黄梦如、邵雅妮；021-52555810、62441381</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>援某国高级农业专家组第四期技术援助项目（二次）</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>服务/其他服务</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>商务部国际经济合作事务局</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>2023年06月20日  11:04</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 11:30  下午:13:30 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>从商务部国际经济合作事务局电子招标投标系统（以下简称电子招投标系统，网址：https://bid.aieco.org/）中下载电子招标文件，采购代理机构不发放纸质招标文件。获取招标文件出现问题，应主动与采购代理机构联系.</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>2023年07月19日  09:00</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>北京市海淀区复兴路17号国海广场C座1012会议室</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>￥0.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>邢媛</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>13011060101</t>
+        </is>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>商务部国际经济合作事务局</t>
+        </is>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>北京市海淀区复兴路17号国海广场C座1122房间</t>
+        </is>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>010-68108103</t>
+        </is>
+      </c>
+      <c r="Q542" t="inlineStr">
+        <is>
+          <t>北京东方华太工程咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>北京市丰台区莲花池西里10号路桥大厦6层</t>
+        </is>
+      </c>
+      <c r="S542" t="inlineStr">
+        <is>
+          <t>邢媛13011060101</t>
+        </is>
+      </c>
+      <c r="T542" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=8A5BC6952FA563AA69FC781BFD3078)公告附件 （二次）.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">暨南大学2023年环境学院设备更新改造项目 </t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/分析仪器/环境监测仪器及综合分析装置</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>暨南大学</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:43</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 12:00  下午:12:00 至 17:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>南方招标与采购交易平台https://www.eebidding.com/</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>广州市越秀区先烈中路102号华盛大厦北塔25楼广东元正招标采购有限公司（注：2023年7月11日9点00分开始受理投标文件）</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>￥496.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>黄小姐、刘小姐</t>
+        </is>
+      </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>020-87258495-307、301</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>暨南大学</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>广州市黄埔大道西601号</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>020-85220458</t>
+        </is>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>广东元正招标采购有限公司</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>广州市越秀区先烈中路102号华盛大厦北塔26楼</t>
+        </is>
+      </c>
+      <c r="S543" t="inlineStr">
+        <is>
+          <t>020-87258495-307、301</t>
+        </is>
+      </c>
+      <c r="T543" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=F13CDC578B21C6F787FA3FD35C3017)招标文件-Z04541正稿.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>监测井保护装置无源智能锁购置与安装</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>服务/采矿业和制造业服务/制造业服务/金属制品的制造业服务和金属加工服务,工程/建筑安装工程/智能化安装工程/其他智能化安装工程</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>中国地质环境监测院</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:30</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>北京市朝阳区新源南路6号京城大厦B座5层505室。</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>2023年07月11日  14:00</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>北京金龙潭御瑞酒店三层第三会议室（北京市海淀区西三环北路71号）</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>￥313.650000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>王磊、张萌、李玲丽、马鹏飞、符群慕</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>010-84865055-205、201、161、156</t>
+        </is>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>中国地质环境监测院</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>北京市海淀区大慧寺20号</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>刘老师（010-83473369）</t>
+        </is>
+      </c>
+      <c r="Q544" t="inlineStr">
+        <is>
+          <t>中信国际招标有限公司</t>
+        </is>
+      </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>北京市朝阳区新源南路6号京城大厦A座8层</t>
+        </is>
+      </c>
+      <c r="S544" t="inlineStr">
+        <is>
+          <t>王磊、张萌、李玲丽、马鹏飞、符群慕；010-84865055-205、201、161、156</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>测波漂流浮标</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>货物/专用设备/海洋仪器设备/海洋水文气象仪器设备</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>国家海洋局北海预报中心</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:26</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>青岛市市北区辽源路281号5号楼</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>青岛市市北区辽源路281号5号楼开标室</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>￥27.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>高学斌、李宁</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>0532-85063327</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>国家海洋局北海预报中心</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>山东省青岛市崂山区云岭路27号</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>侯晓薇0532-58750617</t>
+        </is>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>青岛利业建设咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>山东省青岛市市北区辽源路281号5号楼</t>
+        </is>
+      </c>
+      <c r="S545" t="inlineStr">
+        <is>
+          <t>高学斌、李宁0532-85063327</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>中国信息通信研究院2021年工业互联网创新发展工程—基于工业互联网的产业链协作和供应链预警平台项目（2023年度）-供应链突发事件沙盘推演系统</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/软件开发服务/应用软件开发服务/通用应用软件开发服务,服务/信息技术服务/软件开发服务/应用软件开发服务/行业应用软件开发服务,服务/信息技术服务/软件开发服务/基础软件开发服务</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>中国信息通信研究院</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:24</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:00  下午:13:30 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>￥800</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>采购代理机构或中国通用招标网（http://www.china-tender.com.cn）</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:30</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>北京市丰台区西三环南路14号院首科大厦A座4层405号中技国际招标有限公司会议中心</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>￥230.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>姜女士，田女士</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>010-81168201、81168265</t>
+        </is>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>中国信息通信研究院</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>北京市海淀区花园北路52号</t>
+        </is>
+      </c>
+      <c r="P546" t="inlineStr">
+        <is>
+          <t>葛晓菲；gexiaofei@caict.ac.cn</t>
+        </is>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>中技国际招标有限公司</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>北京市丰台区西营街1号院通用时代中心C座8层</t>
+        </is>
+      </c>
+      <c r="S546" t="inlineStr">
+        <is>
+          <t>姜女士，010-81168409；jiangxingyue@cmc.gt.cn</t>
+        </is>
+      </c>
+      <c r="T546" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=C1A267E874BB7AB184F75AA551B1C7)7R09-技术需求.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>海洋站观测系统配件</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>货物/专用设备/海洋仪器设备/海洋水文气象仪器设备</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>国家海洋局北海预报中心</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:20</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>青岛市市北区辽源路281号5号楼</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>青岛市市北区辽源路281号5号楼开标室</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>￥30.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>高学斌、李宁</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>0532-85063327</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>国家海洋局北海预报中心</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>山东省青岛市崂山区云岭路27号</t>
+        </is>
+      </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>侯晓薇0532-58750617</t>
+        </is>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>青岛利业建设咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>山东省青岛市市北区辽源路281号5号楼</t>
+        </is>
+      </c>
+      <c r="S547" t="inlineStr">
+        <is>
+          <t>高学斌、李宁0532-85063327</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>中国中医科学院西苑医院门诊中药代前服务项目</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>服务/医疗卫生和社会服务/医疗卫生服务/医院服务</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>中国中医科学院西苑医院</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:20</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:8:30 至 12:00  下午:12:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>投标人通过微信关注“北京国际贸易有限公司”公众号，通过聊天窗口底部“招标业务”-“信息填报”-“查询项目”，填写信息后进行购买</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>2023年07月11日  13:00</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国中医科学院西苑医院杏苑楼第三会议室（北京市海淀区西苑操场1号）。 </t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>￥0.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">臧妍、梁潇 </t>
+        </is>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>010-85343428</t>
+        </is>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>中国中医科学院西苑医院</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>北京市海淀区西苑操场1号</t>
+        </is>
+      </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>贾老师 010-62835680</t>
+        </is>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>北京国际贸易有限公司</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>北京市朝阳区建国门外大街甲3号</t>
+        </is>
+      </c>
+      <c r="S548" t="inlineStr">
+        <is>
+          <t>臧妍、梁潇 010-85343428</t>
+        </is>
+      </c>
+      <c r="T548" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=5884D6547AA01C41FA59AEA96E2236)招标公告.doc</t>
+        </is>
+      </c>
+      <c r="U548" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=DBECEC54EEDFF1E8B5B14CB2FB9A85)采购需求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>江阴校区物业服务</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>服务/房地产服务/物业管理服务</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>南京理工大学</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>2023年06月20日  10:01</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>线上（zbpt.njust.edu.cn/）</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南京市建邺区嘉陵江东街8号综合体B3栋一单元16层开标大厅 </t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>￥1600.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>李娆/王冬</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>025-83603378</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>南京理工大学</t>
+        </is>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>南京市孝陵卫200号</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">燕老师 025-84303870 </t>
+        </is>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>江苏省华采招标有限公司</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南京市建邺区嘉陵江东街8号综合体B3栋一单元16层　</t>
+        </is>
+      </c>
+      <c r="S549" t="inlineStr">
+        <is>
+          <t>李娆/王冬 025-83603378</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>图形处理服务器</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>货物/通用设备/计算机设备及软件/计算机设备/服务器</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>清华大学本级</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>2023年06月20日  09:20</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月27日每日上午:8:00 至 12:00  下午:12:00 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>http://sbcgczxxfb.sysc.tsinghua.edu.cn</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>北京市海淀区清华大学华业大厦实验室管理处1区5层第一评标室</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>￥498.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>王琦</t>
+        </is>
+      </c>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>62771946</t>
+        </is>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>清华大学本级</t>
+        </is>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>北京市海淀区清华园</t>
+        </is>
+      </c>
+      <c r="P550" t="inlineStr">
+        <is>
+          <t>王琦62771946</t>
+        </is>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>详见公告正文</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>详见公告正文</t>
+        </is>
+      </c>
+      <c r="S550" t="inlineStr">
+        <is>
+          <t>详见公告正文</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>华中科技大学同济医学院附属协和医院西院新大楼云桌面系统采购项目</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>华中科技大学同济医学院附属协和医院</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>2023年06月20日  09:10</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月10日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>￥120.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>陆瑶</t>
+        </is>
+      </c>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>010-55602563</t>
+        </is>
+      </c>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>华中科技大学同济医学院附属协和医院</t>
+        </is>
+      </c>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>武汉市解放大道1277号</t>
+        </is>
+      </c>
+      <c r="P551" t="inlineStr">
+        <is>
+          <t>027-85726822</t>
+        </is>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S551" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>上海财经大学校内楼宇消防改造项目</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>工程/专业施工/消防工程和安防工程</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>上海财经大学</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2023年06月20日  08:42</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月27日每日上午:9:00 至 11:00  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>￥1000</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>上海市黄浦区汉口路398号华盛大厦22楼</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>上海市黄浦区汉口路398号华盛大厦22楼</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>￥120.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>许老师</t>
+        </is>
+      </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>65904549</t>
+        </is>
+      </c>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>上海财经大学</t>
+        </is>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>杨浦国定路777号</t>
+        </is>
+      </c>
+      <c r="P552" t="inlineStr">
+        <is>
+          <t>许老师　65904549</t>
+        </is>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>上海大华工程造价咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>上海市黄浦区汉口路398号华盛大厦22楼</t>
+        </is>
+      </c>
+      <c r="S552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">朱海红021-63238528　</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>继续教育学院9座以上客车服务</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>服务/其他服务</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>2023年06月19日  22:25</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>2023年06月19日至2023年06月27日每日上午:8:30 至 11:30  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>微信获取（扫描附件二维码或关注“浙江求是招标代理有限公司”企业公众号）或现场获取。</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>2023年07月10日  13:30</t>
+        </is>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>杭州市西湖区玉古路173号中田大厦16楼求是招标6号会议室</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>￥2600.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>周翔</t>
+        </is>
+      </c>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>13777868967</t>
+        </is>
+      </c>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>浙江大学</t>
+        </is>
+      </c>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>浙江大学华家池校区（凯旋路268号）</t>
+        </is>
+      </c>
+      <c r="P553" t="inlineStr">
+        <is>
+          <t>周翔,13777868967</t>
+        </is>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>浙江求是招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>杭州市西湖区玉古路173号中田大厦21楼</t>
+        </is>
+      </c>
+      <c r="S553" t="inlineStr">
+        <is>
+          <t>陈宵、叶鲁茂,0571-8766119</t>
+        </is>
+      </c>
+      <c r="T553" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=610D9F1DECCA3D520A5DC5110D3A6C)微信报名二维码.jpg</t>
+        </is>
+      </c>
+      <c r="U553" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=ADE0BF0859AB450CCDBC4CB5965D4D)文件获取函.docx</t>
+        </is>
+      </c>
+      <c r="V553" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=C017D650B733AB97CEF4ACBE9D34BA)投标邀请.docx</t>
+        </is>
+      </c>
+      <c r="W553" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=94DDE6E3FFC28CFC857FA69753190C)采购需求.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>中国地质大学（武汉）南望山校区多媒体教室设备改造</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>货物/通用设备/通信设备/传真及数据数字通信设备/数据、多媒体通信终端设备,货物/通用设备/电气设备/生活用电器/空气调节电器/空调机</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>中国地质大学（武汉）</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>2023年06月19日  22:21</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月27日每日上午:9:00 至 11:30  下午:14:30 至 16:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>湖北建信建设工程咨询有限公司（地址：武汉市武昌区才茂街万科金域华府商业中心B座7楼）。</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>2023年07月10日  09:30</t>
+        </is>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>武汉市洪山区鲁磨路388号中国地质大学（武汉）采购与招标管理中心106 室。</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>￥300.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>马玉琴、吴利艳</t>
+        </is>
+      </c>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>18971286520、19972116027</t>
+        </is>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>中国地质大学（武汉）</t>
+        </is>
+      </c>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>湖北省武汉市洪山区鲁磨路388号</t>
+        </is>
+      </c>
+      <c r="P554" t="inlineStr">
+        <is>
+          <t>赵老师、027-67886471</t>
+        </is>
+      </c>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>湖北建信建设工程咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>武汉市武昌区才茂街万科金域华府商业中心B座7楼</t>
+        </is>
+      </c>
+      <c r="S554" t="inlineStr">
+        <is>
+          <t>马玉琴、吴利艳、18971286520、19972116027</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所多功能冰冻切片荧光全景扫描分析系统采购项目</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/其他仪器仪表</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>2023年06月19日  21:13</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>2023年06月19日至2023年06月27日每日上午:9:00 至 12:00  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>登录“东方招标”平台（http://www.oitccas.com/）注册并购买。</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>2023年07月10日  14:00</t>
+        </is>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所综合办公楼302会议室</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>￥180.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 赫老师</t>
+        </is>
+      </c>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>0431-85262186</t>
+        </is>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所</t>
+        </is>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>吉林省长春市人民大街5625号</t>
+        </is>
+      </c>
+      <c r="P555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">赫老师；0431-85262186  </t>
+        </is>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>东方国际招标有限责任公司</t>
+        </is>
+      </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="S555" t="inlineStr">
+        <is>
+          <t>王军、郭宇涵、李雯；  010-68290508、010-68290530</t>
+        </is>
+      </c>
+      <c r="T555" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=321F40407B9C0E044380610FF67917)采购需求1031.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所低温样品制备系统采购项目</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/其他仪器仪表</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>2023年06月19日  21:03</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>2023年06月19日至2023年06月27日每日上午:9:00 至 12:00  下午:13:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>登录“东方招标”平台（http://www.oitccas.com/）注册并购买。</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>2023年07月10日  14:00</t>
+        </is>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所综合办公楼302会议室</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>￥160.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>赫老师</t>
+        </is>
+      </c>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>0431-85262186</t>
+        </is>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>中国科学院长春应用化学研究所</t>
+        </is>
+      </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>吉林省长春市人民大街5625号</t>
+        </is>
+      </c>
+      <c r="P556" t="inlineStr">
+        <is>
+          <t>赫老师；0431-85262186</t>
+        </is>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>东方国际招标有限责任公司</t>
+        </is>
+      </c>
+      <c r="R556" t="inlineStr">
+        <is>
+          <t>北京市海淀区丹棱街1号互联网金融中心20层</t>
+        </is>
+      </c>
+      <c r="S556" t="inlineStr">
+        <is>
+          <t>王军、郭宇涵、李雯；  010-68290508、010-68290530</t>
+        </is>
+      </c>
+      <c r="T556" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=8B7A2A789E7F6CBBEC402143375034)采购要求1030.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>中山大学附属肿瘤医院医疗设备采购项目</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>货物/专用设备/医疗设备/医用内窥镜</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>中山大学附属肿瘤医院</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>2023年06月19日  20:25</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>2023年06月19日至2023年06月27日每日上午:8:30 至 12:00  下午:12:00 至 17:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>南方招标与采购交易平台https://www.eebidding.com/</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>2023年07月10日  15:00</t>
+        </is>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>广州市越秀区先烈中路102号华盛大厦北塔25楼广东元正招标采购有限公司开标室（注：2023年07月10日14点30分开始受理投标文件）</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>￥630.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>梁颖贤、刘秀辉</t>
+        </is>
+      </c>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>020-87258495-302、301</t>
+        </is>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>中山大学附属肿瘤医院</t>
+        </is>
+      </c>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>广州市东风东路651号</t>
+        </is>
+      </c>
+      <c r="P557" t="inlineStr">
+        <is>
+          <t>曾老师 020-87343131</t>
+        </is>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>广东元正招标采购有限公司</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>广州市越秀区先烈中路102号华盛大厦北塔26楼2608室</t>
+        </is>
+      </c>
+      <c r="S557" t="inlineStr">
+        <is>
+          <t>梁颖贤、刘秀辉 020-87258495-302、301</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>天津某单位2023年度主副食材配送服务</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>服务/批发和零售服务/批发服务/食品和饮料批发服务</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>某单位</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>2023年06月19日  19:54</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月27日每日上午:9:00 至 12:00  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>北京首建项目管理有限公司（天津市河西区黑牛城道57号津玉大厦10楼）</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>2023年07月10日  14:30</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>北京首建项目管理有限公司（天津市河西区黑牛城道57号津玉大厦10楼）</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>￥217.386700万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>赵相艳</t>
+        </is>
+      </c>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>18920600936</t>
+        </is>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>某单位</t>
+        </is>
+      </c>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>天津市</t>
+        </is>
+      </c>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>北京首建项目管理有限公司</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>天津市河西区黑牛城道57号津玉大厦10楼</t>
+        </is>
+      </c>
+      <c r="S558" t="inlineStr">
+        <is>
+          <t>赵相艳18920600936</t>
+        </is>
+      </c>
+      <c r="T558" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=6D376C144DD47CA7EE7F6F9EDFFE83)项目需求书.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>中国海洋大学管理学院、食品科学与工程学院等学院实验室环境改造材料采购项目</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>货物/通用设备/电气设备/绝缘电线和电缆</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>2023年06月19日  18:43</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月27日每日上午:8:00 至 11:30  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A01房间或邮件报名</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A02房间</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>￥23.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>孙萌、肖颖梦</t>
+        </is>
+      </c>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>0532-67737979</t>
+        </is>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>青岛市崂山区松岭路238号</t>
+        </is>
+      </c>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>赵老师0532-66781979</t>
+        </is>
+      </c>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>山东盛和招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R559" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A01房间</t>
+        </is>
+      </c>
+      <c r="S559" t="inlineStr">
+        <is>
+          <t>孙萌、肖颖梦0532-67737979</t>
+        </is>
+      </c>
+      <c r="T559" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=33BE3261EA74E49525E67469237046)A4包技术参数.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>中国科学院昆明动物研究所肽类分子探针与候选药物平台（2期）项目（03标段：免标记差示扫描荧光仪）</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/试验仪器及装置/其他试验仪器及装置</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>中国科学院昆明动物研究所</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>2023年06月19日  18:43</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>2023年06月19日至2023年06月27日每日上午:9:30 至 11:30  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>云南省昆明市广福路 转 陆家路  红星大厦8栋7楼。联系人：彭女士，联系方式：0871-63577385，邮箱号：384586440@qq.com；</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>2023年07月10日  09:30</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>云南省昆明市西山区广福路转陆家路红星大厦八栋七楼2号会议室。</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>￥170.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>杨华    彭琴（获取招标文件联系人）</t>
+        </is>
+      </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>13888155547   0871-63577385（获取招标文件联系电话）</t>
+        </is>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>中国科学院昆明动物研究所</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>云南省昆明市盘龙区茨坝街道龙欣路17号</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr">
+        <is>
+          <t>笪老师0871-65190773</t>
+        </is>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>云南量子工程管理有限公司</t>
+        </is>
+      </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>云南省昆明市西山区广福路转陆家路红星大厦八栋七楼</t>
+        </is>
+      </c>
+      <c r="S560" t="inlineStr">
+        <is>
+          <t>杨华13888155547      彭琴 0871-63577385（获取招标文件联系人）</t>
+        </is>
+      </c>
+      <c r="T560" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=173CF80B2C18D02141C2EEF9F0904A)获取招标文件登记表.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>中国海洋大学管理学院、食品科学与工程学院等学院实验室环境改造材料采购项目</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>货物/通用设备/电气设备/绝缘电线和电缆</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>2023年06月19日  18:43</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月27日每日上午:8:00 至 11:30  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A01房间或邮件报名</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A02房间</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>￥23.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>孙萌、肖颖梦</t>
+        </is>
+      </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>0532-67737979</t>
+        </is>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>青岛市崂山区松岭路238号</t>
+        </is>
+      </c>
+      <c r="P561" t="inlineStr">
+        <is>
+          <t>赵老师0532-66781979</t>
+        </is>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>山东盛和招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A01房间</t>
+        </is>
+      </c>
+      <c r="S561" t="inlineStr">
+        <is>
+          <t>孙萌、肖颖梦0532-67737979</t>
+        </is>
+      </c>
+      <c r="T561" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=33BE3261EA74E49525E67469237046)A4包技术参数.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>中国科学院昆明动物研究所肽类分子探针与候选药物平台（2期）项目（03标段：免标记差示扫描荧光仪）</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>货物/通用设备/仪器仪表/试验仪器及装置/其他试验仪器及装置</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>中国科学院昆明动物研究所</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>2023年06月19日  18:43</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>2023年06月19日至2023年06月27日每日上午:9:30 至 11:30  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>云南省昆明市广福路 转 陆家路  红星大厦8栋7楼。联系人：彭女士，联系方式：0871-63577385，邮箱号：384586440@qq.com；</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>2023年07月10日  09:30</t>
+        </is>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>云南省昆明市西山区广福路转陆家路红星大厦八栋七楼2号会议室。</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>￥170.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>杨华    彭琴（获取招标文件联系人）</t>
+        </is>
+      </c>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>13888155547   0871-63577385（获取招标文件联系电话）</t>
+        </is>
+      </c>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>中国科学院昆明动物研究所</t>
+        </is>
+      </c>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>云南省昆明市盘龙区茨坝街道龙欣路17号</t>
+        </is>
+      </c>
+      <c r="P562" t="inlineStr">
+        <is>
+          <t>笪老师0871-65190773</t>
+        </is>
+      </c>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>云南量子工程管理有限公司</t>
+        </is>
+      </c>
+      <c r="R562" t="inlineStr">
+        <is>
+          <t>云南省昆明市西山区广福路转陆家路红星大厦八栋七楼</t>
+        </is>
+      </c>
+      <c r="S562" t="inlineStr">
+        <is>
+          <t>杨华13888155547      彭琴 0871-63577385（获取招标文件联系人）</t>
+        </is>
+      </c>
+      <c r="T562" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=173CF80B2C18D02141C2EEF9F0904A)获取招标文件登记表.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>西安铁路公安局2023年民警服装采购项目</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>货物/纺织原料、毛皮、被服装具/被服装具/被服/被服附件/其他被服附件,货物/纺织原料、毛皮、被服装具/被服装具/被服/制服</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>西安铁路公安局</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>陕西</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:36</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:8:30 至 12:00  下午:13:00 至 17:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>西安市航天基地雁塔南路391号正衡金融广场A座18层</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>陕西省西安市长安区航天基地雁塔南路391号正衡金融广场A座18层会议室</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>￥430.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>王俊杰、秦丹丹、史鉴澍</t>
+        </is>
+      </c>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>029-87373098</t>
+        </is>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>西安铁路公安局</t>
+        </is>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>西安市新城区西五路1号</t>
+        </is>
+      </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>杨志杰  029-83190855</t>
+        </is>
+      </c>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>正衡工程项目管理有限公司</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>西安市航天基地雁塔南路391号正衡金融广场A座18楼</t>
+        </is>
+      </c>
+      <c r="S563" t="inlineStr">
+        <is>
+          <t>王俊杰、秦丹丹、史鉴澍  029-87373098</t>
+        </is>
+      </c>
+      <c r="T563" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=E9AB4F06E008DAF791AE5B8C6AACFF)获取招标文件登记表.doc</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>中国海洋大学管理学院、食品科学与工程学院等学院实验室环境改造材料采购项目</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>货物/通用设备/电气设备/绝缘电线和电缆</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:35</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:8:00 至 11:30  下午:13:00 至 16:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A01房间或邮件报名</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A02房间</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>￥52.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>孙萌、肖颖梦</t>
+        </is>
+      </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>0532-67737979</t>
+        </is>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>中国海洋大学</t>
+        </is>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>青岛市崂山区松岭路238号</t>
+        </is>
+      </c>
+      <c r="P564" t="inlineStr">
+        <is>
+          <t>赵老师0532-66781979</t>
+        </is>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>山东盛和招标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>青岛市市北区敦化路138号甲西王大厦24楼23A01房间</t>
+        </is>
+      </c>
+      <c r="S564" t="inlineStr">
+        <is>
+          <t>孙萌、肖颖梦0532-67737979</t>
+        </is>
+      </c>
+      <c r="T564" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=58AF35FFB6959743FD7F0C959553C1)技术参数仅供参考，具体以招标文件为准.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>四川大学华西第二医院基于高通量测序技术的人全外显子测序相关服务采购项目</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>服务/医疗卫生和社会服务/医疗卫生服务/医院服务</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>四川大学华西第二医院</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:32</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:00 至 12:00  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>￥400</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道1700号新世纪环球中心E3门栋6楼2-1-611-615四川中意招标有限公司</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>2023年07月12日  10:00</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道1700号新世纪环球中心E3门栋6楼2-1-611-615四川中意招标有限公司会议室</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>￥475.085000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">陈女士  </t>
+        </is>
+      </c>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>028-87050033</t>
+        </is>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>四川大学华西第二医院</t>
+        </is>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">四川省成都市成龙大道一段1416号　</t>
+        </is>
+      </c>
+      <c r="P565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">刘老师 028-88570912　　　　</t>
+        </is>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>四川中意招标有限公司</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">四川省成都市高新区天府大道1700号新世纪环球中心E3门栋6楼2-1-611-615四川中意招标有限公司　</t>
+        </is>
+      </c>
+      <c r="S565" t="inlineStr">
+        <is>
+          <t>袁女士，028-87050033</t>
+        </is>
+      </c>
+      <c r="T565" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=A501C7FE25D158FC33DDF07665F791)附件.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>某支撑中心指挥显示系统采购项目</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>货物/通用设备/广播、电视、电影设备/视频设备/视频处理器</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>中国科学院软件研究所</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:25</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月29日每日上午:9:00 至 12:00  下午:12:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>中招联合招标采购平台（网址：http://www.365trade.com.cn）</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>2023年07月11日  14:00</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>北京市海淀区学院南路62号中关村资本大厦6层会议室。</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>￥452.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>卢家祺</t>
+        </is>
+      </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>13146696655</t>
+        </is>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>中国科学院软件研究所</t>
+        </is>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>北京市海淀区中关村南四街4号</t>
+        </is>
+      </c>
+      <c r="P566" t="inlineStr">
+        <is>
+          <t>方老师13366731993</t>
+        </is>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>中招国际招标有限公司</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>北京市海淀区学院南路62号中关村资本大厦613A</t>
+        </is>
+      </c>
+      <c r="S566" t="inlineStr">
+        <is>
+          <t>卢家祺、王高云  010-61954095、62108122、13146696655</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>成都市消防救援支队航空救援专业装备采购项目</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>货物/专用设备/安全生产设备/应急救援设备类</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>成都市消防救援支队本级</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:20</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:9:30 至 12:00  下午:14:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>￥300</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道北段28号茂业中心A座7层701</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>2023年06月13日  11:00</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道北段28号茂业中心A座7层701</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>￥340.757000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>李女士</t>
+        </is>
+      </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>028-83397612</t>
+        </is>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>成都市消防救援支队本级</t>
+        </is>
+      </c>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>成都市高新区府城大道东段19号</t>
+        </is>
+      </c>
+      <c r="P567" t="inlineStr">
+        <is>
+          <t>陶老师，028-85358078</t>
+        </is>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>四川锦德招投标代理有限公司</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>成都市高新区天府大道北段28号茂业中心A座7层701</t>
+        </is>
+      </c>
+      <c r="S567" t="inlineStr">
+        <is>
+          <t>黄先生,028-83397612</t>
+        </is>
+      </c>
+      <c r="T567" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=EFA95F480E8826D025B2723DD98644)报名资料..doc</t>
+        </is>
+      </c>
+      <c r="U567" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=ABF98F2B8449C68F8A1F0D219E8274)支队采购需求.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2023-2024年度单项预算金额50万元以下（不含50万元）的工程监理（房屋建筑监理、 市政公用工程监理、公路工程监理、水利水电监理）的框架协议采购</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>服务/其他服务</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>资源县财政局</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:14</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月11日每日上午:8:00 至 14:00  下午:12:00 至 21:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>“政采云”平台（https://www.zcygov.cn）</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>2023年07月12日  09:30</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>桂林市公共资源交易中心  10  号开标室（广西桂林市临桂区西城中路69号创业大厦西辅楼4楼北区）通过“政采云”平台在线开启。</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>￥0.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>蒋主任</t>
+        </is>
+      </c>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>0773-4315648</t>
+        </is>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>资源县财政局</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>资源县财政局采购办506号</t>
+        </is>
+      </c>
+      <c r="P568" t="inlineStr">
+        <is>
+          <t>蒋主任  0773-4315648</t>
+        </is>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>广西润扬项目管理有限公司</t>
+        </is>
+      </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>桂林市叠彩区大河乡五福村委会蔡家渡102号</t>
+        </is>
+      </c>
+      <c r="S568" t="inlineStr">
+        <is>
+          <t>陈工 0773-8287012</t>
+        </is>
+      </c>
+      <c r="T568" t="inlineStr">
+        <is>
+          <t>(http://download.ccgp.gov.cn/oss/download?uuid=5917279123EFC2AE4B398D89FDB655)2023.6.20（定稿）.资源县2023-2024年工程监理（房屋建筑监理、市政公共监理、公路工程监理、水利水电监理）框架协议采购.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>全国政协办公厅信息中心全国政协信息化智能化（一期）建设项目教学培训综合管理系统软件开发分项采购项目</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>全国政协办公厅信息中心</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:10</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年07月10日每日上午:0:00 至 11:59  下午:12:00 至 23:59（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>在线下载 （https://www.zycg.gov.cn）</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:00</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>项目通过网上开标大厅进行开标，请在开标当日登录国e采系统点击“网上开标”进入网上开标大厅，在规定时间内等待解密和唱标</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>￥161.854700万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>陆瑶</t>
+        </is>
+      </c>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>010-55602563</t>
+        </is>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>全国政协办公厅信息中心</t>
+        </is>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>北京市西城区太平桥大街23号</t>
+        </is>
+      </c>
+      <c r="P569" t="inlineStr">
+        <is>
+          <t>010-66192407</t>
+        </is>
+      </c>
+      <c r="Q569" t="inlineStr">
+        <is>
+          <t>中央国家机关政府采购中心</t>
+        </is>
+      </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>西章胡同9号院</t>
+        </is>
+      </c>
+      <c r="S569" t="inlineStr">
+        <is>
+          <t>010-83083702</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>气体招标项目</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>货物/基础化学品及相关产品/化学原料及化学制品/其他化学制品</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>上海海关动植物与食品检验检疫技术中心</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:09</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 11:30  下午:13:30 至 15:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>￥600</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>上海市浦东新区商城路618号良友大厦8楼</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>2023年07月11日  10:00</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>上海市浦东新区商城路618号良友大厦8楼会议室</t>
+        </is>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>￥90.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>曹星辰</t>
+        </is>
+      </c>
+      <c r="M570" t="inlineStr">
+        <is>
+          <t>021-50934532</t>
+        </is>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>上海海关动植物与食品检验检疫技术中心</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>上海市浦东新区沔北路299号</t>
+        </is>
+      </c>
+      <c r="P570" t="inlineStr">
+        <is>
+          <t>杨老师 021-60157508</t>
+        </is>
+      </c>
+      <c r="Q570" t="inlineStr">
+        <is>
+          <t>上海浦成机电设备招标有限公司</t>
+        </is>
+      </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>上海市浦东新区商城路618号良友大厦8楼</t>
+        </is>
+      </c>
+      <c r="S570" t="inlineStr">
+        <is>
+          <t>曹星辰 021-50934532</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>国家税务总局信丰县税务局物业外包、劳务外包服务项目</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>服务/房地产服务/物业管理服务</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>国家税务总局信丰县税务局</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:09</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>2023年06月21日至2023年06月28日每日上午:8:30 至 12:00  下午:14:30 至 17:30（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>￥0</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>江西嘉浩招标咨询有限公司（信丰县体育新居B区1号楼二楼）</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>2023年07月11日  15:00</t>
+        </is>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>江西嘉浩招标咨询有限公司（信丰县体育新居B区1号楼二楼）（开标室）</t>
+        </is>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>￥638.320000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>朱丽华</t>
+        </is>
+      </c>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>0797-3366997</t>
+        </is>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>国家税务总局信丰县税务局</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>信丰县嘉定镇圣塔路141号</t>
+        </is>
+      </c>
+      <c r="P571" t="inlineStr">
+        <is>
+          <t>陈女士0797-3328629</t>
+        </is>
+      </c>
+      <c r="Q571" t="inlineStr">
+        <is>
+          <t>江西嘉浩招标咨询有限公司</t>
+        </is>
+      </c>
+      <c r="R571" t="inlineStr">
+        <is>
+          <t>信丰县体育新居B区1号楼二楼</t>
+        </is>
+      </c>
+      <c r="S571" t="inlineStr">
+        <is>
+          <t>朱丽华0797-3366997</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>华文期刊数据库数据更新运维项目2022年</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>服务/信息技术服务/运行维护服务/基础环境运维服务</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>中国社会科学评价研究院</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>2023年06月20日  17:05</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>2023年06月20日至2023年06月28日每日上午:9:00 至 12:00  下午:12:00 至 17:00（北京时间，法定节假日除外）</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>￥500</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>中国建材集团招标采购管理平台( https://tendering.cnbm.com.cn)</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>2023年07月11日  09:30</t>
+        </is>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>北新建材集团有限公司108会议室（北京市海淀区建材城西路16号）</t>
+        </is>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>￥200.000000万元（人民币）</t>
+        </is>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>高岩、贾雨华</t>
+        </is>
+      </c>
+      <c r="M572" t="inlineStr">
+        <is>
+          <t>010-8112 2896</t>
+        </is>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>中国社会科学评价研究院</t>
+        </is>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>北京市建国门内大街5号</t>
+        </is>
+      </c>
+      <c r="P572" t="inlineStr">
+        <is>
+          <t>郝若扬、尚媛媛 010-8519 5430</t>
+        </is>
+      </c>
+      <c r="Q572" t="inlineStr">
+        <is>
+          <t>北新建材集团有限公司</t>
+        </is>
+      </c>
+      <c r="R572" t="inlineStr">
+        <is>
+          <t>北京市海淀区建材城西路16号</t>
+        </is>
+      </c>
+      <c r="S572" t="inlineStr">
+        <is>
+          <t>高岩、贾雨华010-8112 2896</t>
         </is>
       </c>
     </row>
